--- a/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGLT_holdings_data_clean.xlsx
+++ b/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGLT_holdings_data_clean.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,24 +551,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>35080415</t>
-        </is>
+      <c r="F2" t="n">
+        <v>283485451.88</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>02/15/2036</t>
+          <t>11/15/2052</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>35195900</t>
+          <t>319758000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -578,12 +576,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>US912810FT08</t>
+          <t>US912810TL26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -596,12 +594,12 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>912810FT0</t>
+          <t>912810TL2</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>B0YBFV4</t>
+          <t>BQXS7C3</t>
         </is>
       </c>
     </row>
@@ -623,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -631,24 +629,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18949945</t>
-        </is>
+      <c r="F3" t="n">
+        <v>276021666.75</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>1.750</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02/15/2037</t>
+          <t>08/15/2041</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18641200</t>
+          <t>443408300</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -658,12 +654,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>US912810PT97</t>
+          <t>US912810TA60</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -676,12 +672,12 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>912810PT9</t>
+          <t>912810TA6</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>B1RDG66</t>
+          <t>BLDBLR0</t>
         </is>
       </c>
     </row>
@@ -703,7 +699,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,24 +707,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25940613</t>
-        </is>
+      <c r="F4" t="n">
+        <v>268588475.31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>2.375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>05/15/2037</t>
+          <t>05/15/2051</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25003000</t>
+          <t>423390700</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -738,12 +732,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>US912810PU60</t>
+          <t>US912810SX72</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -756,12 +750,12 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>912810PU6</t>
+          <t>912810SX7</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>B23Y8Q4</t>
+          <t>BMHV4V8</t>
         </is>
       </c>
     </row>
@@ -783,7 +777,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -791,24 +785,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>25451642</t>
-        </is>
+      <c r="F5" t="n">
+        <v>263967420.47</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>3.625</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>02/15/2038</t>
+          <t>05/15/2053</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26276900</t>
+          <t>318693000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -818,12 +810,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>US912810PW27</t>
+          <t>US912810TR95</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -836,12 +828,12 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>912810PW2</t>
+          <t>912810TR9</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>B2PKS37</t>
+          <t>BQYLTM5</t>
         </is>
       </c>
     </row>
@@ -863,7 +855,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -871,24 +863,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>36794062</t>
-        </is>
+      <c r="F6" t="n">
+        <v>263766582.03</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>3.625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>05/15/2038</t>
+          <t>02/15/2053</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>37647000</t>
+          <t>318691000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -898,12 +888,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>US912810PX00</t>
+          <t>US912810TN81</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -916,12 +906,12 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>912810PX0</t>
+          <t>912810TN8</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>B3CJB24</t>
+          <t>BQXLPR3</t>
         </is>
       </c>
     </row>
@@ -943,7 +933,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -951,24 +941,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>34627935</t>
-        </is>
+      <c r="F7" t="n">
+        <v>247225920</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.500</t>
+          <t>1.875</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02/15/2039</t>
+          <t>02/15/2041</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>40112000</t>
+          <t>383296000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -978,12 +966,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>US912810QA97</t>
+          <t>US912810SW99</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -996,12 +984,12 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>912810QA9</t>
+          <t>912810SW9</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>B527Q49</t>
+          <t>BMT9GQ9</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1011,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1031,24 +1019,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>62551060</t>
-        </is>
+      <c r="F8" t="n">
+        <v>240767550</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>05/15/2039</t>
+          <t>05/15/2052</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>66400200</t>
+          <t>339408000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1058,12 +1044,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>US912810QB70</t>
+          <t>US912810TG31</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1076,12 +1062,12 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>912810QB7</t>
+          <t>912810TG3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>B41K8R9</t>
+          <t>BPSLLZ1</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1089,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1111,24 +1097,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>64590747</t>
-        </is>
+      <c r="F9" t="n">
+        <v>239353717.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08/15/2039</t>
+          <t>11/15/2041</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>66706600</t>
+          <t>368946000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1138,12 +1122,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>US912810QC53</t>
+          <t>US912810TC27</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1156,12 +1140,12 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>912810QC5</t>
+          <t>912810TC2</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>B43HGR4</t>
+          <t>BPBMDL1</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1167,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1191,24 +1175,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>71876165</t>
-        </is>
+      <c r="F10" t="n">
+        <v>239230313.14</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11/15/2039</t>
+          <t>08/15/2051</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>75559700</t>
+          <t>414363700</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1218,12 +1200,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>US912810QD37</t>
+          <t>US912810SZ21</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1236,12 +1218,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>912810QD3</t>
+          <t>912810SZ2</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>B59RHH2</t>
+          <t>BMWVP21</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1245,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1271,24 +1253,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>67581807</t>
-        </is>
+      <c r="F11" t="n">
+        <v>235488499.81</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.625</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>02/15/2040</t>
+          <t>08/15/2052</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>69049100</t>
+          <t>323001800</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1298,12 +1278,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>US912810QE10</t>
+          <t>US912810TJ79</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1316,12 +1296,12 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>912810QE1</t>
+          <t>912810TJ7</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>B3M3870</t>
+          <t>BQB5GR4</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1323,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1351,24 +1331,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>66000165</t>
-        </is>
+      <c r="F12" t="n">
+        <v>230010870.38</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>1.875</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>05/15/2040</t>
+          <t>02/15/2051</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>69634200</t>
+          <t>410275800</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1378,12 +1356,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>US912810QH41</t>
+          <t>US912810SU34</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1396,12 +1374,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>912810QH4</t>
+          <t>912810SU3</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>B3TCBS2</t>
+          <t>BM9WFN8</t>
         </is>
       </c>
     </row>
@@ -1431,24 +1409,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>138752952</t>
-        </is>
+      <c r="F13" t="n">
+        <v>228058458.25</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>05/15/2040</t>
+          <t>05/15/2041</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>241967000</t>
+          <t>332552800</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1458,12 +1434,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>US912810SR05</t>
+          <t>US912810SY55</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1476,12 +1452,12 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>912810SR0</t>
+          <t>912810SY5</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>BMFKWB3</t>
+          <t>BMCXZ94</t>
         </is>
       </c>
     </row>
@@ -1511,24 +1487,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>164696287</t>
-        </is>
+      <c r="F14" t="n">
+        <v>218280862.83</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.125</t>
+          <t>4.125</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08/15/2040</t>
+          <t>08/15/2053</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>290054000</t>
+          <t>240323000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1538,12 +1512,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>US912810SQ22</t>
+          <t>US912810TT51</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1556,12 +1530,12 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>912810SQ2</t>
+          <t>912810TT5</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>BKVKF47</t>
+          <t>BRT3QH7</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1557,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1591,24 +1565,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>66735220</t>
-        </is>
+      <c r="F15" t="n">
+        <v>216359395.31</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08/15/2040</t>
+          <t>02/15/2052</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>75221100</t>
+          <t>352341000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1618,12 +1590,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>US912810QK79</t>
+          <t>US912810TD00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1636,12 +1608,12 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>912810QK7</t>
+          <t>912810TD0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>B50PG34</t>
+          <t>BM96PW9</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1635,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1671,24 +1643,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>60624118</t>
-        </is>
+      <c r="F16" t="n">
+        <v>215086323.37</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>1.875</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11/15/2040</t>
+          <t>11/15/2051</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>65220100</t>
+          <t>385697000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1698,12 +1668,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>US912810QL52</t>
+          <t>US912810TB44</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1716,12 +1686,12 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>912810QL5</t>
+          <t>912810TB4</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>B5M0864</t>
+          <t>BMCNFZ0</t>
         </is>
       </c>
     </row>
@@ -1751,24 +1721,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>188389869</t>
-        </is>
+      <c r="F17" t="n">
+        <v>207937684.73</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>2.375</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11/15/2040</t>
+          <t>02/15/2042</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>318714000</t>
+          <t>300882000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1778,12 +1746,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>US912810ST60</t>
+          <t>US912810TF57</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1796,12 +1764,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>912810ST6</t>
+          <t>912810TF5</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>BNG0BM3</t>
+          <t>BNYF3R9</t>
         </is>
       </c>
     </row>
@@ -1831,24 +1799,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>247225920</t>
-        </is>
+      <c r="F18" t="n">
+        <v>205553549.45</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>3.250</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>02/15/2041</t>
+          <t>05/15/2042</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>383296000</t>
+          <t>257899000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1858,12 +1824,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>US912810SW99</t>
+          <t>US912810TH14</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1876,12 +1842,12 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>912810SW9</t>
+          <t>912810TH1</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>BMT9GQ9</t>
+          <t>BMDPZG6</t>
         </is>
       </c>
     </row>
@@ -1911,24 +1877,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>69880532</t>
-        </is>
+      <c r="F19" t="n">
+        <v>200807821.42</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>3.375</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>02/15/2041</t>
+          <t>11/15/2048</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>70686800</t>
+          <t>255959000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1938,12 +1902,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>US912810QN19</t>
+          <t>US912810SE91</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1956,12 +1920,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>912810QN1</t>
+          <t>912810SE9</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>B3RFGR7</t>
+          <t>BGRW851</t>
         </is>
       </c>
     </row>
@@ -1991,24 +1955,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>63760937</t>
-        </is>
+      <c r="F20" t="n">
+        <v>197097395.63</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05/15/2041</t>
+          <t>02/15/2049</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>67673300</t>
+          <t>269534900</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2018,12 +1980,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>US912810QQ40</t>
+          <t>US912810SF66</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2036,12 +1998,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>912810QQ4</t>
+          <t>912810SF6</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>BYQLV12</t>
+          <t>BJ7G9G2</t>
         </is>
       </c>
     </row>
@@ -2071,24 +2033,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>228058458</t>
-        </is>
+      <c r="F21" t="n">
+        <v>195889256.38</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>1.625</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05/15/2041</t>
+          <t>11/15/2050</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>332552800</t>
+          <t>374012900</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2098,12 +2058,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>US912810SY55</t>
+          <t>US912810SS87</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2116,12 +2076,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>912810SY5</t>
+          <t>912810SS8</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>BMCXZ94</t>
+          <t>BN7JWV5</t>
         </is>
       </c>
     </row>
@@ -2151,24 +2111,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>276021667</t>
-        </is>
+      <c r="F22" t="n">
+        <v>188423110.31</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.750</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08/15/2041</t>
+          <t>11/15/2042</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>443408300</t>
+          <t>212233000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2178,12 +2136,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>US912810TA60</t>
+          <t>US912810TM09</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2196,12 +2154,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>912810TA6</t>
+          <t>912810TM0</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>BLDBLR0</t>
+          <t>BL56GP6</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2181,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2231,24 +2189,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>67146923</t>
-        </is>
+      <c r="F23" t="n">
+        <v>188389869.37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3.750</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08/15/2041</t>
+          <t>11/15/2040</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>77626500</t>
+          <t>318714000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2258,12 +2214,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>US912810QS06</t>
+          <t>US912810ST60</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2276,12 +2232,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>912810QS0</t>
+          <t>912810ST6</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>B459474</t>
+          <t>BNG0BM3</t>
         </is>
       </c>
     </row>
@@ -2311,24 +2267,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>65206169</t>
-        </is>
+      <c r="F24" t="n">
+        <v>183543925.31</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11/15/2041</t>
+          <t>05/15/2049</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>82966100</t>
+          <t>257267000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2338,12 +2292,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>US912810QT88</t>
+          <t>US912810SH23</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2356,12 +2310,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>912810QT8</t>
+          <t>912810SH2</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>B6ZKRY9</t>
+          <t>BK1WFY3</t>
         </is>
       </c>
     </row>
@@ -2391,39 +2345,37 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>239353718</t>
-        </is>
+      <c r="F25" t="n">
+        <v>182822821.13</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11/15/2041</t>
+          <t>02/15/2043</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>368946000</t>
+          <t>210028000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>TBOND</t>
+          <t>TNOTE</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>US912810TC27</t>
+          <t>US912810TQ13</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2436,12 +2388,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>912810TC2</t>
+          <t>912810TQ1</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>BPBMDL1</t>
+          <t>BMXHQM5</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2415,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2471,24 +2423,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>207937685</t>
-        </is>
+      <c r="F26" t="n">
+        <v>181817106.2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.375</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>02/15/2042</t>
+          <t>08/15/2048</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>300882000</t>
+          <t>248691900</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2498,12 +2448,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>US912810TF57</t>
+          <t>US912810SD19</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2516,12 +2466,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>912810TF5</t>
+          <t>912810SD1</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>BNYF3R9</t>
+          <t>BFZLQN7</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2493,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2551,24 +2501,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>64410388</t>
-        </is>
+      <c r="F27" t="n">
+        <v>181110483.13</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>1.375</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>02/15/2042</t>
+          <t>08/15/2050</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>82231500</t>
+          <t>371033000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2578,12 +2526,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>US912810QU51</t>
+          <t>US912810SP49</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2596,12 +2544,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>912810QU5</t>
+          <t>912810SP4</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>B7FRYY6</t>
+          <t>BMDNWD6</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2571,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2631,24 +2579,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>58126536</t>
-        </is>
+      <c r="F28" t="n">
+        <v>180298163.85</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>05/15/2042</t>
+          <t>05/15/2043</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>75982400</t>
+          <t>207351000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2658,12 +2604,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>US912810QW18</t>
+          <t>US912810TS78</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2676,12 +2622,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>912810QW1</t>
+          <t>912810TS7</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>BW4Q3Z3</t>
+          <t>BNTCJ77</t>
         </is>
       </c>
     </row>
@@ -2711,24 +2657,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>205553549</t>
-        </is>
+      <c r="F29" t="n">
+        <v>176764084.88</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>3.375</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>05/15/2042</t>
+          <t>08/15/2042</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>257899000</t>
+          <t>218017000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2738,12 +2682,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>US912810TH14</t>
+          <t>US912810TK43</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2756,12 +2700,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>912810TH1</t>
+          <t>912810TK4</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>BMDPZG6</t>
+          <t>BJLVKG0</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2727,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2791,24 +2735,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>176764085</t>
-        </is>
+      <c r="F30" t="n">
+        <v>171546548.44</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08/15/2042</t>
+          <t>05/15/2048</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>218017000</t>
+          <t>229015000</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2818,12 +2760,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>US912810TK43</t>
+          <t>US912810SC36</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2836,12 +2778,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>912810TK4</t>
+          <t>912810SC3</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>BJLVKG0</t>
+          <t>BG5NQ30</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2805,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2871,24 +2813,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>63042222</t>
-        </is>
+      <c r="F31" t="n">
+        <v>166760411.01</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08/15/2042</t>
+          <t>02/15/2050</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>86101200</t>
+          <t>285747400</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2898,12 +2838,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>US912810QX90</t>
+          <t>US912810SL35</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2916,12 +2856,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>912810QX9</t>
+          <t>912810SL3</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>B75JF50</t>
+          <t>BK8ZZ34</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2883,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UST BOND</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2951,24 +2891,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>92383148</t>
-        </is>
+      <c r="F32" t="n">
+        <v>164696286.88</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11/15/2042</t>
+          <t>08/15/2040</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>126660700</t>
+          <t>290054000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2978,12 +2916,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>US912810QY73</t>
+          <t>US912810SQ22</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2996,12 +2934,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>912810QY7</t>
+          <t>912810SQ2</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>B8JB195</t>
+          <t>BKVKF47</t>
         </is>
       </c>
     </row>
@@ -3031,24 +2969,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>188423110</t>
-        </is>
+      <c r="F33" t="n">
+        <v>154764854.69</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.000</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11/15/2042</t>
+          <t>05/15/2050</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>212233000</t>
+          <t>327978500</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3058,12 +2994,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>US912810TM09</t>
+          <t>US912810SN90</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3076,12 +3012,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>912810TM0</t>
+          <t>912810SN9</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>BL56GP6</t>
+          <t>BMHCRG7</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3039,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3111,39 +3047,37 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>182822821</t>
-        </is>
+      <c r="F34" t="n">
+        <v>152389732.93</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>02/15/2043</t>
+          <t>02/15/2048</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>210028000</t>
+          <t>208262700</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>TNOTE</t>
+          <t>TBOND</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>US912810TQ13</t>
+          <t>US912810SA79</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3156,12 +3090,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>912810TQ1</t>
+          <t>912810SA7</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>BMXHQM5</t>
+          <t>BG0D0F5</t>
         </is>
       </c>
     </row>
@@ -3191,24 +3125,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>81545822</t>
-        </is>
+      <c r="F35" t="n">
+        <v>148733925</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>02/15/2043</t>
+          <t>08/15/2049</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>105390400</t>
+          <t>238930000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3218,12 +3150,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>US912810QZ49</t>
+          <t>US912810SJ88</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3236,12 +3168,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>912810QZ4</t>
+          <t>912810SJ8</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>B89T3Q0</t>
+          <t>BK9DLC8</t>
         </is>
       </c>
     </row>
@@ -3271,24 +3203,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>122341231</t>
-        </is>
+      <c r="F36" t="n">
+        <v>143408000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>2.375</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>05/15/2043</t>
+          <t>11/15/2049</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>165256200</t>
+          <t>224075000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3298,12 +3228,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>US912810RB61</t>
+          <t>US912810SK51</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3316,12 +3246,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>912810RB6</t>
+          <t>912810SK5</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>B8W8CX4</t>
+          <t>BKVKB94</t>
         </is>
       </c>
     </row>
@@ -3351,24 +3281,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>180298164</t>
-        </is>
+      <c r="F37" t="n">
+        <v>142674988.44</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>05/15/2043</t>
+          <t>08/15/2043</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>207351000</t>
+          <t>152849000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3378,12 +3306,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>US912810TS78</t>
+          <t>US912810TU25</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3396,12 +3324,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>912810TS7</t>
+          <t>912810TU2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>BNTCJ77</t>
+          <t>BQC4SL8</t>
         </is>
       </c>
     </row>
@@ -3431,24 +3359,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>142674988</t>
-        </is>
+      <c r="F38" t="n">
+        <v>138752951.56</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>1.125</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>08/15/2043</t>
+          <t>05/15/2040</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>152849000</t>
+          <t>241967000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3458,12 +3384,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>US912810TU25</t>
+          <t>US912810SR05</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3476,12 +3402,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>912810TU2</t>
+          <t>912810SR0</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>BQC4SL8</t>
+          <t>BMFKWB3</t>
         </is>
       </c>
     </row>
@@ -3511,24 +3437,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>94952094</t>
-        </is>
+      <c r="F39" t="n">
+        <v>130008666.53</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3.625</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08/15/2043</t>
+          <t>11/15/2047</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>113842900</t>
+          <t>186475900</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3538,12 +3462,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>US912810RC45</t>
+          <t>US912810RZ30</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3556,12 +3480,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>912810RC4</t>
+          <t>912810RZ3</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>BCZQWC2</t>
+          <t>BF92XY6</t>
         </is>
       </c>
     </row>
@@ -3591,24 +3515,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>103168897</t>
-        </is>
+      <c r="F40" t="n">
+        <v>129733197.06</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.750</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11/15/2043</t>
+          <t>08/15/2047</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>121598700</t>
+          <t>185830900</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3618,12 +3540,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>US912810RD28</t>
+          <t>US912810RY64</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3636,12 +3558,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>912810RD2</t>
+          <t>912810RY6</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>BGK9QZ5</t>
+          <t>BF53YK6</t>
         </is>
       </c>
     </row>
@@ -3671,24 +3593,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>108320853</t>
-        </is>
+      <c r="F41" t="n">
+        <v>124251823.13</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3.625</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>02/15/2044</t>
+          <t>02/15/2047</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>130310800</t>
+          <t>169266000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3698,12 +3618,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>US912810RE01</t>
+          <t>US912810RV26</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3716,12 +3636,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>912810RE0</t>
+          <t>912810RV2</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>BJT0ZC0</t>
+          <t>BDRJ2Q0</t>
         </is>
       </c>
     </row>
@@ -3751,24 +3671,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>91056603</t>
-        </is>
+      <c r="F42" t="n">
+        <v>122341230.56</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>05/15/2044</t>
+          <t>05/15/2043</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>114155200</t>
+          <t>165256200</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3778,12 +3696,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>US912810RG58</t>
+          <t>US912810RB61</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3796,12 +3714,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>912810RG5</t>
+          <t>912810RB6</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>BM7S970</t>
+          <t>B8W8CX4</t>
         </is>
       </c>
     </row>
@@ -3831,24 +3749,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>116419482</t>
-        </is>
+      <c r="F43" t="n">
+        <v>117212638.59</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08/15/2044</t>
+          <t>02/15/2045</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>152431400</t>
+          <t>172609500</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3858,12 +3774,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>US912810RH32</t>
+          <t>US912810RK60</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3876,12 +3792,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>912810RH3</t>
+          <t>912810RK6</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>BPYD753</t>
+          <t>BVVT273</t>
         </is>
       </c>
     </row>
@@ -3911,24 +3827,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>96829177</t>
-        </is>
+      <c r="F44" t="n">
+        <v>116419481.75</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11/15/2044</t>
+          <t>08/15/2044</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>129808700</t>
+          <t>152431400</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3938,12 +3852,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>US912810RJ97</t>
+          <t>US912810RH32</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3956,12 +3870,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>912810RJ9</t>
+          <t>912810RH3</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>BSJWZQ3</t>
+          <t>BPYD753</t>
         </is>
       </c>
     </row>
@@ -3991,24 +3905,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>117212639</t>
-        </is>
+      <c r="F45" t="n">
+        <v>114041221.13</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>02/15/2045</t>
+          <t>08/15/2046</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>172609500</t>
+          <t>179946700</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4018,12 +3930,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>US912810RK60</t>
+          <t>US912810RT79</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4036,12 +3948,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>912810RK6</t>
+          <t>912810RT7</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>BVVT273</t>
+          <t>BD1FML9</t>
         </is>
       </c>
     </row>
@@ -4071,24 +3983,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>62393922</t>
-        </is>
+      <c r="F46" t="n">
+        <v>108320852.5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.625</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05/15/2045</t>
+          <t>02/15/2044</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>84067600</t>
+          <t>130310800</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4098,12 +4008,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>US912810RM27</t>
+          <t>US912810RE01</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4116,12 +4026,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>912810RM2</t>
+          <t>912810RE0</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>BXC4FZ0</t>
+          <t>BJT0ZC0</t>
         </is>
       </c>
     </row>
@@ -4151,24 +4061,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>84602359</t>
-        </is>
+      <c r="F47" t="n">
+        <v>103168897.03</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08/15/2045</t>
+          <t>11/15/2043</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>116844000</t>
+          <t>121598700</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4178,12 +4086,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>US912810RN00</t>
+          <t>US912810RD28</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4196,12 +4104,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>912810RN0</t>
+          <t>912810RD2</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>BYSJ1Z8</t>
+          <t>BGK9QZ5</t>
         </is>
       </c>
     </row>
@@ -4231,10 +4139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>50220494</t>
-        </is>
+      <c r="F48" t="n">
+        <v>96829177.16</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4243,12 +4149,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>11/15/2045</t>
+          <t>11/15/2044</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>67922900</t>
+          <t>129808700</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4258,12 +4164,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>US912810RP57</t>
+          <t>US912810RJ97</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4276,12 +4182,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>912810RP5</t>
+          <t>912810RJ9</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>BYQP1M5</t>
+          <t>BSJWZQ3</t>
         </is>
       </c>
     </row>
@@ -4311,24 +4217,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>95636294</t>
-        </is>
+      <c r="F49" t="n">
+        <v>96649093.28</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>02/15/2046</t>
+          <t>05/15/2047</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>142574500</t>
+          <t>131775500</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4338,12 +4242,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>US912810RQ31</t>
+          <t>US912810RX81</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4356,12 +4260,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>912810RQ3</t>
+          <t>912810RX8</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>BD2C0D7</t>
+          <t>BF0T9Z9</t>
         </is>
       </c>
     </row>
@@ -4391,10 +4295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>95819288</t>
-        </is>
+      <c r="F50" t="n">
+        <v>95819288.16</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4471,24 +4373,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>114041221</t>
-        </is>
+      <c r="F51" t="n">
+        <v>95636294.2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08/15/2046</t>
+          <t>02/15/2046</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>179946700</t>
+          <t>142574500</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4498,12 +4398,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>US912810RT79</t>
+          <t>US912810RQ31</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4516,12 +4416,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>912810RT7</t>
+          <t>912810RQ3</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>BD1FML9</t>
+          <t>BD2C0D7</t>
         </is>
       </c>
     </row>
@@ -4551,24 +4451,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>63843320</t>
-        </is>
+      <c r="F52" t="n">
+        <v>94952093.78</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>3.625</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11/15/2046</t>
+          <t>08/15/2043</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>88941500</t>
+          <t>113842900</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4578,12 +4476,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>US912810RU43</t>
+          <t>US912810RC45</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4596,12 +4494,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>912810RU4</t>
+          <t>912810RC4</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>BZ1BP67</t>
+          <t>BCZQWC2</t>
         </is>
       </c>
     </row>
@@ -4631,24 +4529,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>124251823</t>
-        </is>
+      <c r="F53" t="n">
+        <v>92383148.06</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>02/15/2047</t>
+          <t>11/15/2042</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>169266000</t>
+          <t>126660700</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4658,12 +4554,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>US912810RV26</t>
+          <t>US912810QY73</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4676,12 +4572,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>912810RV2</t>
+          <t>912810QY7</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>BDRJ2Q0</t>
+          <t>B8JB195</t>
         </is>
       </c>
     </row>
@@ -4711,24 +4607,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>96649093</t>
-        </is>
+      <c r="F54" t="n">
+        <v>91056603.04000001</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.375</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>05/15/2047</t>
+          <t>05/15/2044</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>131775500</t>
+          <t>114155200</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4738,12 +4632,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>US912810RX81</t>
+          <t>US912810RG58</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4756,12 +4650,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>912810RX8</t>
+          <t>912810RG5</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>BF0T9Z9</t>
+          <t>BM7S970</t>
         </is>
       </c>
     </row>
@@ -4791,24 +4685,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>129733197</t>
-        </is>
+      <c r="F55" t="n">
+        <v>84602358.75</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08/15/2047</t>
+          <t>08/15/2045</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>185830900</t>
+          <t>116844000</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4818,12 +4710,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>US912810RY64</t>
+          <t>US912810RN00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4836,12 +4728,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>912810RY6</t>
+          <t>912810RN0</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>BF53YK6</t>
+          <t>BYSJ1Z8</t>
         </is>
       </c>
     </row>
@@ -4871,24 +4763,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>130008667</t>
-        </is>
+      <c r="F56" t="n">
+        <v>81545822</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11/15/2047</t>
+          <t>02/15/2043</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>186475900</t>
+          <t>105390400</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4898,12 +4788,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>US912810RZ30</t>
+          <t>US912810QZ49</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4916,12 +4806,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>912810RZ3</t>
+          <t>912810QZ4</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>BF92XY6</t>
+          <t>B89T3Q0</t>
         </is>
       </c>
     </row>
@@ -4951,24 +4841,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>152389733</t>
-        </is>
+      <c r="F57" t="n">
+        <v>71876164.63</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>02/15/2048</t>
+          <t>11/15/2039</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>208262700</t>
+          <t>75559700</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4978,12 +4866,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>US912810SA79</t>
+          <t>US912810QD37</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4996,12 +4884,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>912810SA7</t>
+          <t>912810QD3</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>BG0D0F5</t>
+          <t>B59RHH2</t>
         </is>
       </c>
     </row>
@@ -5031,24 +4919,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>171546548</t>
-        </is>
+      <c r="F58" t="n">
+        <v>69880532.22</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05/15/2048</t>
+          <t>02/15/2041</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>229015000</t>
+          <t>70686800</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5058,12 +4944,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>US912810SC36</t>
+          <t>US912810QN19</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5076,12 +4962,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>912810SC3</t>
+          <t>912810QN1</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>BG5NQ30</t>
+          <t>B3RFGR7</t>
         </is>
       </c>
     </row>
@@ -5111,24 +4997,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>181817106</t>
-        </is>
+      <c r="F59" t="n">
+        <v>67581806.63</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>4.625</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08/15/2048</t>
+          <t>02/15/2040</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>248691900</t>
+          <t>69049100</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5138,12 +5022,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>US912810SD19</t>
+          <t>US912810QE10</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5156,12 +5040,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>912810SD1</t>
+          <t>912810QE1</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>BFZLQN7</t>
+          <t>B3M3870</t>
         </is>
       </c>
     </row>
@@ -5191,24 +5075,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>200807821</t>
-        </is>
+      <c r="F60" t="n">
+        <v>67146922.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>11/15/2048</t>
+          <t>08/15/2041</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>255959000</t>
+          <t>77626500</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5218,12 +5100,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>US912810SE91</t>
+          <t>US912810QS06</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5236,12 +5118,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>912810SE9</t>
+          <t>912810QS0</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>BGRW851</t>
+          <t>B459474</t>
         </is>
       </c>
     </row>
@@ -5271,24 +5153,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>197097396</t>
-        </is>
+      <c r="F61" t="n">
+        <v>66735219.66</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>02/15/2049</t>
+          <t>08/15/2040</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>269534900</t>
+          <t>75221100</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5298,12 +5178,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>US912810SF66</t>
+          <t>US912810QK79</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5316,12 +5196,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>912810SF6</t>
+          <t>912810QK7</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>BJ7G9G2</t>
+          <t>B50PG34</t>
         </is>
       </c>
     </row>
@@ -5351,24 +5231,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>183543925</t>
-        </is>
+      <c r="F62" t="n">
+        <v>66000165.19</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>05/15/2049</t>
+          <t>05/15/2040</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>257267000</t>
+          <t>69634200</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5378,12 +5256,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>US912810SH23</t>
+          <t>US912810QH41</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5396,12 +5274,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>912810SH2</t>
+          <t>912810QH4</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>BK1WFY3</t>
+          <t>B3TCBS2</t>
         </is>
       </c>
     </row>
@@ -5431,24 +5309,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>148733925</t>
-        </is>
+      <c r="F63" t="n">
+        <v>65206169.22</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08/15/2049</t>
+          <t>11/15/2041</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>238930000</t>
+          <t>82966100</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5458,12 +5334,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>US912810SJ88</t>
+          <t>US912810QT88</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5476,12 +5352,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>912810SJ8</t>
+          <t>912810QT8</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>BK9DLC8</t>
+          <t>B6ZKRY9</t>
         </is>
       </c>
     </row>
@@ -5511,24 +5387,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>143408000</t>
-        </is>
+      <c r="F64" t="n">
+        <v>64590746.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.375</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11/15/2049</t>
+          <t>08/15/2039</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>224075000</t>
+          <t>66706600</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5538,12 +5412,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>US912810SK51</t>
+          <t>US912810QC53</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5556,12 +5430,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>912810SK5</t>
+          <t>912810QC5</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>BKVKB94</t>
+          <t>B43HGR4</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5457,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5591,24 +5465,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>166760411</t>
-        </is>
+      <c r="F65" t="n">
+        <v>64410388</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>02/15/2050</t>
+          <t>02/15/2042</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>285747400</t>
+          <t>82231500</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5618,12 +5490,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>US912810SL35</t>
+          <t>US912810QU51</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5636,12 +5508,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>912810SL3</t>
+          <t>912810QU5</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>BK8ZZ34</t>
+          <t>B7FRYY6</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5535,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5671,24 +5543,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>154764855</t>
-        </is>
+      <c r="F66" t="n">
+        <v>63843320.47</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>05/15/2050</t>
+          <t>11/15/2046</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>327978500</t>
+          <t>88941500</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5698,12 +5568,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>US912810SN90</t>
+          <t>US912810RU43</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5716,12 +5586,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>912810SN9</t>
+          <t>912810RU4</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>BMHCRG7</t>
+          <t>BZ1BP67</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5613,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5751,24 +5621,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>181110483</t>
-        </is>
+      <c r="F67" t="n">
+        <v>63760937.34</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.375</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08/15/2050</t>
+          <t>05/15/2041</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>371033000</t>
+          <t>67673300</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5778,12 +5646,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>US912810SP49</t>
+          <t>US912810QQ40</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5796,12 +5664,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>912810SP4</t>
+          <t>912810QQ4</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>BMDNWD6</t>
+          <t>BYQLV12</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5691,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5831,24 +5699,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>195889256</t>
-        </is>
+      <c r="F68" t="n">
+        <v>63042222.38</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.625</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11/15/2050</t>
+          <t>08/15/2042</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>374012900</t>
+          <t>86101200</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5858,12 +5724,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>US912810SS87</t>
+          <t>US912810QX90</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5876,12 +5742,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>912810SS8</t>
+          <t>912810QX9</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>BN7JWV5</t>
+          <t>B75JF50</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5769,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5911,24 +5777,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>230010870</t>
-        </is>
+      <c r="F69" t="n">
+        <v>62551060.09</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>4.250</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>02/15/2051</t>
+          <t>05/15/2039</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>410275800</t>
+          <t>66400200</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5938,12 +5802,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>US912810SU34</t>
+          <t>US912810QB70</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5956,12 +5820,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>912810SU3</t>
+          <t>912810QB7</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>BM9WFN8</t>
+          <t>B41K8R9</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5847,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5991,24 +5855,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>268588475</t>
-        </is>
+      <c r="F70" t="n">
+        <v>62393921.88</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2.375</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>05/15/2051</t>
+          <t>05/15/2045</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>423390700</t>
+          <t>84067600</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6018,12 +5880,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>US912810SX72</t>
+          <t>US912810RM27</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6036,12 +5898,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>912810SX7</t>
+          <t>912810RM2</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>BMHV4V8</t>
+          <t>BXC4FZ0</t>
         </is>
       </c>
     </row>
@@ -6063,7 +5925,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6071,24 +5933,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>239230313</t>
-        </is>
+      <c r="F71" t="n">
+        <v>60624117.82</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>4.250</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08/15/2051</t>
+          <t>11/15/2040</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>414363700</t>
+          <t>65220100</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -6098,12 +5958,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>US912810SZ21</t>
+          <t>US912810QL52</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -6116,12 +5976,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>912810SZ2</t>
+          <t>912810QL5</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>BMWVP21</t>
+          <t>B5M0864</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6003,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6151,24 +6011,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>215086323</t>
-        </is>
+      <c r="F72" t="n">
+        <v>58126536</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.875</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11/15/2051</t>
+          <t>05/15/2042</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>385697000</t>
+          <t>75982400</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6178,12 +6036,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>US912810TB44</t>
+          <t>US912810QW18</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6196,12 +6054,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>912810TB4</t>
+          <t>912810QW1</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>BMCNFZ0</t>
+          <t>BW4Q3Z3</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6081,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6231,24 +6089,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>216359395</t>
-        </is>
+      <c r="F73" t="n">
+        <v>50220494.19</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>02/15/2052</t>
+          <t>11/15/2045</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>352341000</t>
+          <t>67922900</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6258,12 +6114,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>US912810TD00</t>
+          <t>US912810RP57</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6276,12 +6132,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>912810TD0</t>
+          <t>912810RP5</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>BM96PW9</t>
+          <t>BYQP1M5</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6159,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6311,24 +6167,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>240767550</t>
-        </is>
+      <c r="F74" t="n">
+        <v>36794062.04</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>05/15/2052</t>
+          <t>05/15/2038</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>339408000</t>
+          <t>37647000</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6338,12 +6192,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>US912810TG31</t>
+          <t>US912810PX00</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6356,12 +6210,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>912810TG3</t>
+          <t>912810PX0</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>BPSLLZ1</t>
+          <t>B3CJB24</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6237,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6391,24 +6245,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>235488500</t>
-        </is>
+      <c r="F75" t="n">
+        <v>35080415.21</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>08/15/2052</t>
+          <t>02/15/2036</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>323001800</t>
+          <t>35195900</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6418,12 +6270,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>US912810TJ79</t>
+          <t>US912810FT08</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6436,12 +6288,12 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>912810TJ7</t>
+          <t>912810FT0</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>BQB5GR4</t>
+          <t>B0YBFV4</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6315,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6471,24 +6323,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>283485452</t>
-        </is>
+      <c r="F76" t="n">
+        <v>34627935.49</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4.000</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>11/15/2052</t>
+          <t>02/15/2039</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>319758000</t>
+          <t>40112000</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6498,12 +6348,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>US912810TL26</t>
+          <t>US912810QA97</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6516,12 +6366,12 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>912810TL2</t>
+          <t>912810QA9</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>BQXS7C3</t>
+          <t>B527Q49</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6393,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6551,24 +6401,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>263766582</t>
-        </is>
+      <c r="F77" t="n">
+        <v>25940612.5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>3.625</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>02/15/2053</t>
+          <t>05/15/2037</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>318691000</t>
+          <t>25003000</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6578,12 +6426,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>US912810TN81</t>
+          <t>US912810PU60</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6596,12 +6444,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>912810TN8</t>
+          <t>912810PU6</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>BQXLPR3</t>
+          <t>B23Y8Q4</t>
         </is>
       </c>
     </row>
@@ -6623,7 +6471,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6631,24 +6479,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>263967420</t>
-        </is>
+      <c r="F78" t="n">
+        <v>25451642.42</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.625</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>05/15/2053</t>
+          <t>02/15/2038</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>318693000</t>
+          <t>26276900</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6658,12 +6504,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>US912810TR95</t>
+          <t>US912810PW27</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6676,12 +6522,12 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>912810TR9</t>
+          <t>912810PW2</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>BQYLTM5</t>
+          <t>B2PKS37</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6549,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST BOND</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6711,24 +6557,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>218280863</t>
-        </is>
+      <c r="F79" t="n">
+        <v>18949944.88</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>08/15/2053</t>
+          <t>02/15/2037</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>240323000</t>
+          <t>18641200</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6738,12 +6582,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>US912810TT51</t>
+          <t>US912810PT97</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6756,12 +6600,12 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>912810TT5</t>
+          <t>912810PT9</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>BRT3QH7</t>
+          <t>B1RDG66</t>
         </is>
       </c>
     </row>
